--- a/FinalResultsPerAlgorithm/MergeSort.xlsx
+++ b/FinalResultsPerAlgorithm/MergeSort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\FinalResultsPerAlgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FED0A8-8AD7-4E9E-8C95-E7070A83311E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38BCF3A-CC83-48C2-9495-F73D59031829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,8 +359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,7 +399,7 @@
         <v>1.0321082000000001E-2</v>
       </c>
       <c r="E2">
-        <v>8.7538872000000004E-2</v>
+        <v>8.0019660000000006E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -416,7 +416,7 @@
         <v>1.1652018E-2</v>
       </c>
       <c r="E3">
-        <v>0.130246215</v>
+        <v>0.13761056399999999</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -433,7 +433,7 @@
         <v>1.1011231999999999E-2</v>
       </c>
       <c r="E4">
-        <v>0.15558820200000001</v>
+        <v>0.145304238</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -450,7 +450,7 @@
         <v>1.3221050999999999E-2</v>
       </c>
       <c r="E5">
-        <v>0.15436833599999999</v>
+        <v>0.151481491</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -467,7 +467,7 @@
         <v>1.8438169000000001E-2</v>
       </c>
       <c r="E6">
-        <v>0.14740051100000001</v>
+        <v>0.157891373</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -484,7 +484,7 @@
         <v>1.0853756000000001E-2</v>
       </c>
       <c r="E7">
-        <v>0.15288085500000001</v>
+        <v>0.160041396</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>1.2117648999999999E-2</v>
       </c>
       <c r="E8">
-        <v>0.150988131</v>
+        <v>0.15895605300000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -518,7 +518,7 @@
         <v>1.6649532000000002E-2</v>
       </c>
       <c r="E9">
-        <v>0.13111777499999999</v>
+        <v>0.15455735800000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -535,7 +535,7 @@
         <v>1.1979072E-2</v>
       </c>
       <c r="E10">
-        <v>0.13550789299999999</v>
+        <v>0.13197613599999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -552,7 +552,7 @@
         <v>1.5367125000000001E-2</v>
       </c>
       <c r="E11">
-        <v>0.14863256699999999</v>
+        <v>0.15072904500000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
         <v>1.0136403E-2</v>
       </c>
       <c r="E12">
-        <v>0.115306825</v>
+        <v>0.14902753699999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
         <v>1.4239233E-2</v>
       </c>
       <c r="E13">
-        <v>0.13839215999999999</v>
+        <v>0.141941242</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>9.9080790000000002E-3</v>
       </c>
       <c r="E14">
-        <v>0.136765634</v>
+        <v>0.15053174599999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>1.0089478000000001E-2</v>
       </c>
       <c r="E15">
-        <v>0.15257263500000001</v>
+        <v>0.133315088</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
         <v>1.0527368E-2</v>
       </c>
       <c r="E16">
-        <v>0.144130703</v>
+        <v>0.15043114199999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>1.7905740999999999E-2</v>
       </c>
       <c r="E17">
-        <v>0.13992668899999999</v>
+        <v>0.133376684</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>1.3464442E-2</v>
       </c>
       <c r="E18">
-        <v>0.102755918</v>
+        <v>8.4666105000000005E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,7 +688,7 @@
         <v>1.087074E-2</v>
       </c>
       <c r="E19">
-        <v>6.1658698999999997E-2</v>
+        <v>7.1824810000000003E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,7 +705,7 @@
         <v>1.4431701999999999E-2</v>
       </c>
       <c r="E20">
-        <v>7.7562046999999995E-2</v>
+        <v>6.5124639999999998E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,7 +722,7 @@
         <v>1.6286078999999998E-2</v>
       </c>
       <c r="E21">
-        <v>7.3536119999999996E-2</v>
+        <v>7.0850477999999995E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
         <v>6.409896E-3</v>
       </c>
       <c r="E22">
-        <v>6.8232838000000004E-2</v>
+        <v>6.3015990999999993E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>1.3270809E-2</v>
       </c>
       <c r="E23">
-        <v>7.5674669E-2</v>
+        <v>7.2775659000000006E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>1.0757565E-2</v>
       </c>
       <c r="E24">
-        <v>6.4627410999999996E-2</v>
+        <v>8.0796273000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,7 +790,7 @@
         <v>1.4178958E-2</v>
       </c>
       <c r="E25">
-        <v>7.9770745000000004E-2</v>
+        <v>6.3747528999999997E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
         <v>1.4337218000000001E-2</v>
       </c>
       <c r="E26">
-        <v>6.3212367000000005E-2</v>
+        <v>7.8353617E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,7 +824,7 @@
         <v>1.3604244E-2</v>
       </c>
       <c r="E27">
-        <v>8.0155657000000005E-2</v>
+        <v>6.5077195000000004E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
         <v>1.0236795E-2</v>
       </c>
       <c r="E28">
-        <v>6.8068525000000005E-2</v>
+        <v>7.4468785999999995E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>1.0172661E-2</v>
       </c>
       <c r="E29">
-        <v>7.1877990000000003E-2</v>
+        <v>7.4484255999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,7 +875,7 @@
         <v>1.0173338000000001E-2</v>
       </c>
       <c r="E30">
-        <v>6.7627794000000005E-2</v>
+        <v>7.0811890000000002E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,7 +892,7 @@
         <v>8.7786960000000008E-3</v>
       </c>
       <c r="E31">
-        <v>7.5245403000000002E-2</v>
+        <v>6.6040254000000007E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
         <v>8.8116570000000005E-3</v>
       </c>
       <c r="E32">
-        <v>5.9410319000000003E-2</v>
+        <v>8.0051391999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -926,7 +926,7 @@
         <v>1.1065413E-2</v>
       </c>
       <c r="E33">
-        <v>7.7605828000000002E-2</v>
+        <v>7.4871919999999995E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,7 +943,7 @@
         <v>6.192772E-3</v>
       </c>
       <c r="E34">
-        <v>6.3509300000000005E-2</v>
+        <v>6.6873559999999999E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,7 +960,7 @@
         <v>1.1547004E-2</v>
       </c>
       <c r="E35">
-        <v>7.8307153000000004E-2</v>
+        <v>7.1701841000000002E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,7 +977,7 @@
         <v>1.4676333E-2</v>
       </c>
       <c r="E36">
-        <v>6.1805882999999999E-2</v>
+        <v>7.3499596E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
         <v>1.1267254000000001E-2</v>
       </c>
       <c r="E37">
-        <v>7.7959290000000001E-2</v>
+        <v>7.1565388999999993E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,7 +1011,7 @@
         <v>1.1430114999999999E-2</v>
       </c>
       <c r="E38">
-        <v>6.2945846E-2</v>
+        <v>7.6399850000000005E-2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,7 +1028,7 @@
         <v>1.0009544E-2</v>
       </c>
       <c r="E39">
-        <v>7.9675121000000002E-2</v>
+        <v>7.2455356999999998E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,7 +1045,7 @@
         <v>1.3365814E-2</v>
       </c>
       <c r="E40">
-        <v>6.6853838999999998E-2</v>
+        <v>7.4852794E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,7 +1062,7 @@
         <v>1.0404958000000001E-2</v>
       </c>
       <c r="E41">
-        <v>7.4819212999999996E-2</v>
+        <v>6.4572000000000004E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
         <v>1.0174549999999999E-2</v>
       </c>
       <c r="E42">
-        <v>6.5130436999999999E-2</v>
+        <v>7.1705098999999994E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,7 +1096,7 @@
         <v>1.0041085E-2</v>
       </c>
       <c r="E43">
-        <v>7.7114314000000003E-2</v>
+        <v>7.6926931000000004E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,7 +1113,7 @@
         <v>1.0107926E-2</v>
       </c>
       <c r="E44">
-        <v>6.3068787000000001E-2</v>
+        <v>7.4999692000000007E-2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,7 +1130,7 @@
         <v>1.0843656E-2</v>
       </c>
       <c r="E45">
-        <v>7.7325064999999998E-2</v>
+        <v>7.4384567999999998E-2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
         <v>1.1545227E-2</v>
       </c>
       <c r="E46">
-        <v>6.2579199000000002E-2</v>
+        <v>8.1093950999999997E-2</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,7 +1164,7 @@
         <v>1.4197972E-2</v>
       </c>
       <c r="E47">
-        <v>8.4126053000000006E-2</v>
+        <v>7.6065387999999998E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
         <v>1.0117507E-2</v>
       </c>
       <c r="E48">
-        <v>6.1307932000000002E-2</v>
+        <v>7.2677103000000007E-2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
         <v>1.0014379E-2</v>
       </c>
       <c r="E49">
-        <v>9.0481606000000006E-2</v>
+        <v>7.2932758E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>1.6743635E-2</v>
       </c>
       <c r="E50">
-        <v>5.9739113000000003E-2</v>
+        <v>7.2501811999999999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1232,7 +1232,7 @@
         <v>1.5427161999999999E-2</v>
       </c>
       <c r="E51">
-        <v>7.8214756999999996E-2</v>
+        <v>7.8692631999999998E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
         <v>1.0290830000000001E-2</v>
       </c>
       <c r="E52">
-        <v>6.3469448999999997E-2</v>
+        <v>7.1031119000000004E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
         <v>1.0296995E-2</v>
       </c>
       <c r="E53">
-        <v>8.2237096999999995E-2</v>
+        <v>6.3660069E-2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1283,7 +1283,7 @@
         <v>1.0144141000000001E-2</v>
       </c>
       <c r="E54">
-        <v>6.2273909000000002E-2</v>
+        <v>7.2146448000000002E-2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
         <v>1.4062023E-2</v>
       </c>
       <c r="E55">
-        <v>8.7380157E-2</v>
+        <v>7.1512038E-2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>9.6556149999999993E-3</v>
       </c>
       <c r="E56">
-        <v>5.9274592000000001E-2</v>
+        <v>7.2297056999999998E-2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1334,7 +1334,7 @@
         <v>1.0145361E-2</v>
       </c>
       <c r="E57">
-        <v>7.6241215000000001E-2</v>
+        <v>7.1855617999999996E-2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1351,7 +1351,7 @@
         <v>1.0402748E-2</v>
       </c>
       <c r="E58">
-        <v>6.3600340000000005E-2</v>
+        <v>6.9983384999999995E-2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1368,7 +1368,7 @@
         <v>1.0102275000000001E-2</v>
       </c>
       <c r="E59">
-        <v>7.8946621999999994E-2</v>
+        <v>7.3045429999999995E-2</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1385,7 +1385,7 @@
         <v>1.8031767000000001E-2</v>
       </c>
       <c r="E60">
-        <v>6.1337323999999999E-2</v>
+        <v>7.3360758999999998E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1402,7 +1402,7 @@
         <v>1.5790967999999999E-2</v>
       </c>
       <c r="E61">
-        <v>8.1055843000000002E-2</v>
+        <v>6.9418229999999997E-2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1419,7 +1419,7 @@
         <v>1.6942161000000001E-2</v>
       </c>
       <c r="E62">
-        <v>6.2479355E-2</v>
+        <v>7.4030364000000001E-2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
         <v>1.3249978000000001E-2</v>
       </c>
       <c r="E63">
-        <v>7.9891028000000003E-2</v>
+        <v>7.1325284000000003E-2</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
         <v>1.0184916E-2</v>
       </c>
       <c r="E64">
-        <v>6.3816827000000007E-2</v>
+        <v>7.1444142000000002E-2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1470,7 +1470,7 @@
         <v>1.0359046E-2</v>
       </c>
       <c r="E65">
-        <v>7.9984063999999994E-2</v>
+        <v>7.5754539999999995E-2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1487,7 +1487,7 @@
         <v>1.0564056E-2</v>
       </c>
       <c r="E66">
-        <v>6.9638340000000007E-2</v>
+        <v>7.5392645999999994E-2</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1504,7 +1504,7 @@
         <v>1.0606111E-2</v>
       </c>
       <c r="E67">
-        <v>7.2444376000000005E-2</v>
+        <v>7.2888238999999994E-2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
         <v>1.0232767E-2</v>
       </c>
       <c r="E68">
-        <v>6.1604929000000003E-2</v>
+        <v>6.4607328000000006E-2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1538,7 +1538,7 @@
         <v>1.0496549000000001E-2</v>
       </c>
       <c r="E69">
-        <v>7.9583017000000006E-2</v>
+        <v>7.174643E-2</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1555,7 +1555,7 @@
         <v>2.3163837999999999E-2</v>
       </c>
       <c r="E70">
-        <v>6.2918506999999999E-2</v>
+        <v>7.8741441999999995E-2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
         <v>1.6277711E-2</v>
       </c>
       <c r="E71">
-        <v>7.9412627E-2</v>
+        <v>6.3365684000000005E-2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>1.6269711999999999E-2</v>
       </c>
       <c r="E72">
-        <v>6.4819066999999994E-2</v>
+        <v>7.1769932999999994E-2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1606,7 +1606,7 @@
         <v>1.0229076E-2</v>
       </c>
       <c r="E73">
-        <v>8.6196687999999994E-2</v>
+        <v>7.3899058000000004E-2</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1623,7 +1623,7 @@
         <v>9.8496360000000002E-3</v>
       </c>
       <c r="E74">
-        <v>5.9048493000000001E-2</v>
+        <v>7.4772329999999998E-2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1640,7 +1640,7 @@
         <v>9.5023999999999994E-3</v>
       </c>
       <c r="E75">
-        <v>7.7781087999999998E-2</v>
+        <v>7.1863449999999995E-2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1657,7 +1657,7 @@
         <v>1.2245150999999999E-2</v>
       </c>
       <c r="E76">
-        <v>6.1866417E-2</v>
+        <v>7.5253419000000002E-2</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1674,7 +1674,7 @@
         <v>1.2792013E-2</v>
       </c>
       <c r="E77">
-        <v>7.8123817999999998E-2</v>
+        <v>7.2197154999999999E-2</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1691,7 +1691,7 @@
         <v>1.0146263000000001E-2</v>
       </c>
       <c r="E78">
-        <v>7.2363308000000001E-2</v>
+        <v>7.2081825000000002E-2</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1708,7 +1708,7 @@
         <v>1.0211463E-2</v>
       </c>
       <c r="E79">
-        <v>6.9615726000000003E-2</v>
+        <v>7.5076760000000006E-2</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1725,7 +1725,7 @@
         <v>1.0096920000000001E-2</v>
       </c>
       <c r="E80">
-        <v>7.8126730000000005E-2</v>
+        <v>6.3262218999999995E-2</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -1742,7 +1742,7 @@
         <v>9.1413780000000004E-3</v>
       </c>
       <c r="E81">
-        <v>6.1865502000000003E-2</v>
+        <v>7.5025839999999996E-2</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
         <v>2.2956130000000002E-2</v>
       </c>
       <c r="E82">
-        <v>7.5036558000000003E-2</v>
+        <v>7.1587658999999998E-2</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -1776,7 +1776,7 @@
         <v>1.0656443999999999E-2</v>
       </c>
       <c r="E83">
-        <v>6.8435830000000003E-2</v>
+        <v>7.3520453999999999E-2</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -1793,7 +1793,7 @@
         <v>1.5020815999999999E-2</v>
       </c>
       <c r="E84">
-        <v>7.7614938999999994E-2</v>
+        <v>7.2897385999999995E-2</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
         <v>1.0308049E-2</v>
       </c>
       <c r="E85">
-        <v>6.4006077999999994E-2</v>
+        <v>7.9892697999999998E-2</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -1827,7 +1827,7 @@
         <v>1.0058322999999999E-2</v>
       </c>
       <c r="E86">
-        <v>7.8497401999999994E-2</v>
+        <v>7.3744071999999994E-2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -1844,7 +1844,7 @@
         <v>1.5107835999999999E-2</v>
       </c>
       <c r="E87">
-        <v>6.3889897000000001E-2</v>
+        <v>7.2159349999999997E-2</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -1861,7 +1861,7 @@
         <v>1.0303731999999999E-2</v>
       </c>
       <c r="E88">
-        <v>7.1499725E-2</v>
+        <v>7.2167110000000007E-2</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -1878,7 +1878,7 @@
         <v>1.012746E-2</v>
       </c>
       <c r="E89">
-        <v>7.2623742000000005E-2</v>
+        <v>7.3699124000000005E-2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -1895,7 +1895,7 @@
         <v>1.1077841E-2</v>
       </c>
       <c r="E90">
-        <v>8.2183142000000001E-2</v>
+        <v>7.4006078000000003E-2</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -1912,7 +1912,7 @@
         <v>7.8970039999999991E-3</v>
       </c>
       <c r="E91">
-        <v>6.2314587999999997E-2</v>
+        <v>7.3641848999999995E-2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -1929,7 +1929,7 @@
         <v>9.1343569999999992E-3</v>
       </c>
       <c r="E92">
-        <v>7.6234213999999995E-2</v>
+        <v>7.4552648999999999E-2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -1946,7 +1946,7 @@
         <v>1.1568836000000001E-2</v>
       </c>
       <c r="E93">
-        <v>5.992401E-2</v>
+        <v>6.3202874000000006E-2</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -1963,7 +1963,7 @@
         <v>1.3381624E-2</v>
       </c>
       <c r="E94">
-        <v>7.6604835999999996E-2</v>
+        <v>8.3673699000000004E-2</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -1980,7 +1980,7 @@
         <v>1.2783480999999999E-2</v>
       </c>
       <c r="E95">
-        <v>6.2423459000000001E-2</v>
+        <v>6.3909789999999994E-2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -1997,7 +1997,7 @@
         <v>1.0984713E-2</v>
       </c>
       <c r="E96">
-        <v>7.8534490999999998E-2</v>
+        <v>9.1689497999999994E-2</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2014,7 +2014,7 @@
         <v>1.0260473000000001E-2</v>
       </c>
       <c r="E97">
-        <v>6.2415656999999999E-2</v>
+        <v>7.1195543999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2031,7 +2031,7 @@
         <v>1.3370761E-2</v>
       </c>
       <c r="E98">
-        <v>7.9025935000000005E-2</v>
+        <v>7.2892125000000002E-2</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2048,7 +2048,7 @@
         <v>1.0189465E-2</v>
       </c>
       <c r="E99">
-        <v>6.2534625999999996E-2</v>
+        <v>7.2219488999999998E-2</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2065,7 +2065,7 @@
         <v>1.1178759999999999E-2</v>
       </c>
       <c r="E100">
-        <v>7.8132227999999998E-2</v>
+        <v>7.1622415999999994E-2</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2082,7 +2082,7 @@
         <v>1.0154814E-2</v>
       </c>
       <c r="E101">
-        <v>6.3752233000000005E-2</v>
+        <v>7.6134052999999993E-2</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2099,7 +2099,7 @@
         <v>1.0005333999999999E-2</v>
       </c>
       <c r="E102">
-        <v>8.0837939999999997E-2</v>
+        <v>7.1268961000000006E-2</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2116,7 +2116,7 @@
         <v>1.026939E-2</v>
       </c>
       <c r="E103">
-        <v>6.6982578000000001E-2</v>
+        <v>7.5194406000000005E-2</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2133,7 +2133,7 @@
         <v>9.4420879999999995E-3</v>
       </c>
       <c r="E104">
-        <v>8.3310226000000001E-2</v>
+        <v>7.2524687000000004E-2</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2150,7 +2150,7 @@
         <v>1.8583484000000001E-2</v>
       </c>
       <c r="E105">
-        <v>5.9335786000000001E-2</v>
+        <v>7.0238815999999996E-2</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2167,7 +2167,7 @@
         <v>1.4775297999999999E-2</v>
       </c>
       <c r="E106">
-        <v>7.7342593000000001E-2</v>
+        <v>7.4204457000000001E-2</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2184,7 +2184,7 @@
         <v>1.6679057000000001E-2</v>
       </c>
       <c r="E107">
-        <v>6.2627848E-2</v>
+        <v>7.3580200999999998E-2</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2201,7 +2201,7 @@
         <v>1.0669099E-2</v>
       </c>
       <c r="E108">
-        <v>7.9747135999999996E-2</v>
+        <v>7.2839745999999997E-2</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2218,7 +2218,7 @@
         <v>1.0530469000000001E-2</v>
       </c>
       <c r="E109">
-        <v>6.4105766999999994E-2</v>
+        <v>7.4428139000000004E-2</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2235,7 +2235,7 @@
         <v>1.4032152000000001E-2</v>
       </c>
       <c r="E110">
-        <v>7.6987949999999999E-2</v>
+        <v>6.9638730999999995E-2</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2252,7 +2252,7 @@
         <v>9.9495190000000004E-3</v>
       </c>
       <c r="E111">
-        <v>6.3163031999999994E-2</v>
+        <v>7.3047307000000006E-2</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2269,7 +2269,7 @@
         <v>1.0091087E-2</v>
       </c>
       <c r="E112">
-        <v>7.6759571999999998E-2</v>
+        <v>6.4867356000000001E-2</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2286,7 +2286,7 @@
         <v>1.0117671999999999E-2</v>
       </c>
       <c r="E113">
-        <v>6.3325785999999995E-2</v>
+        <v>7.5325887999999994E-2</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2303,7 +2303,7 @@
         <v>1.3930807E-2</v>
       </c>
       <c r="E114">
-        <v>7.7813018999999997E-2</v>
+        <v>7.2915213000000006E-2</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2320,7 +2320,7 @@
         <v>1.7793739999999999E-2</v>
       </c>
       <c r="E115">
-        <v>6.1673823000000003E-2</v>
+        <v>7.6828524999999995E-2</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2337,7 +2337,7 @@
         <v>1.9121835E-2</v>
       </c>
       <c r="E116">
-        <v>8.1501220999999999E-2</v>
+        <v>7.3726602000000002E-2</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2354,7 +2354,7 @@
         <v>1.050829E-2</v>
       </c>
       <c r="E117">
-        <v>5.8852387999999999E-2</v>
+        <v>6.5655341000000006E-2</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2371,7 +2371,7 @@
         <v>9.2977340000000002E-3</v>
       </c>
       <c r="E118">
-        <v>8.1227302000000001E-2</v>
+        <v>7.3632136000000001E-2</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2388,7 +2388,7 @@
         <v>1.0138952E-2</v>
       </c>
       <c r="E119">
-        <v>7.6407847000000001E-2</v>
+        <v>7.5474594000000006E-2</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2405,7 +2405,7 @@
         <v>8.8600290000000002E-3</v>
       </c>
       <c r="E120">
-        <v>6.4889583000000001E-2</v>
+        <v>6.8679639000000001E-2</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2422,7 +2422,7 @@
         <v>1.0088133000000001E-2</v>
       </c>
       <c r="E121">
-        <v>6.8189754000000005E-2</v>
+        <v>8.1442975000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/FinalResultsPerAlgorithm/MergeSort.xlsx
+++ b/FinalResultsPerAlgorithm/MergeSort.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\FinalResultsPerAlgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38BCF3A-CC83-48C2-9495-F73D59031829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F005C2CE-87C5-4F02-974D-555313F4CCC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Iterations</t>
   </si>
@@ -40,6 +48,9 @@
   </si>
   <si>
     <t>Rust</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
@@ -63,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,12 +82,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E121"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2425,6 +2446,27 @@
         <v>8.1442975000000001E-2</v>
       </c>
     </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="1">
+        <f>SUM(B2:B121)</f>
+        <v>6.7146736760000021</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" ref="C122:E122" si="0">SUM(C2:C121)</f>
+        <v>1.4118568959999993</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="0"/>
+        <v>1.44226305</v>
+      </c>
+      <c r="E122" s="1">
+        <f t="shared" si="0"/>
+        <v>9.8547817469999988</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
